--- a/celine_lang.xlsx
+++ b/celine_lang.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22">
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="34">
@@ -1195,7 +1195,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="37">
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="43">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="46">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47">
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>867</v>
+        <v>860</v>
       </c>
     </row>
     <row r="49">
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>911</v>
+        <v>906</v>
       </c>
     </row>
     <row r="52">
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53">
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>855</v>
+        <v>858</v>
       </c>
     </row>
     <row r="55">
@@ -1678,7 +1678,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56">
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="58">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59">
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="61">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>966</v>
+        <v>969</v>
       </c>
     </row>
     <row r="64">
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65">
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
     <row r="67">
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="68">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="70">
@@ -2023,7 +2023,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71">
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="73">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="74">
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="76">
@@ -2161,7 +2161,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="77">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="79">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80">
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="82">
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="83">
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="85">
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="86">
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>751</v>
+        <v>755</v>
       </c>
     </row>
     <row r="88">
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="89">
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="91">
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="97">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="98">
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>635</v>
+        <v>645</v>
       </c>
     </row>
     <row r="100">
@@ -2713,7 +2713,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="101">
@@ -2759,7 +2759,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="103">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="104">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106">
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="107">
@@ -2897,7 +2897,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>411</v>
+        <v>588</v>
       </c>
     </row>
     <row r="109">
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>471</v>
+        <v>811</v>
       </c>
     </row>
     <row r="110">
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
